--- a/xlsx_ouputs/peak_heating_with_citysim.xlsx
+++ b/xlsx_ouputs/peak_heating_with_citysim.xlsx
@@ -16,28 +16,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
-    <t>ESP</t>
-  </si>
-  <si>
-    <t>BLAST</t>
-  </si>
-  <si>
-    <t>DOE2</t>
-  </si>
-  <si>
-    <t>SRES/SUN</t>
-  </si>
-  <si>
-    <t>SERIRES</t>
-  </si>
-  <si>
-    <t>S3PAS</t>
-  </si>
-  <si>
-    <t>TRNSYS</t>
-  </si>
-  <si>
-    <t>TASE</t>
+    <t>ESP(APH)</t>
+  </si>
+  <si>
+    <t>BLAST(APH)</t>
+  </si>
+  <si>
+    <t>DOE2(APH)</t>
+  </si>
+  <si>
+    <t>SRES/SUN(APH)</t>
+  </si>
+  <si>
+    <t>SERIRES(APH)</t>
+  </si>
+  <si>
+    <t>S3PAS(APH)</t>
+  </si>
+  <si>
+    <t>TRNSYS(APH)</t>
+  </si>
+  <si>
+    <t>TASE(APH)</t>
   </si>
   <si>
     <t>min</t>
